--- a/log results.xlsx
+++ b/log results.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Material\AI\Curso Digital House\XX - Proyecto Truco\pycharm2\value_pickles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Material\AI\Curso Digital House\XX - Proyecto Truco\pycharm2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7549F4E2-E0B9-4265-A49C-F9F673617C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1714416-BF03-4162-904B-D9F8483C6F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2220" windowWidth="29040" windowHeight="15840" tabRatio="613" activeTab="4" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
+    <workbookView xWindow="13890" yWindow="4785" windowWidth="22110" windowHeight="16455" tabRatio="613" activeTab="5" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
   </bookViews>
   <sheets>
     <sheet name="v2 r2" sheetId="1" r:id="rId1"/>
     <sheet name="v2 r2 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="v2 r2 (3)" sheetId="5" r:id="rId3"/>
     <sheet name="v2 r2 (4)" sheetId="7" r:id="rId4"/>
-    <sheet name="Reflexiones" sheetId="4" r:id="rId5"/>
-    <sheet name="decaying eps" sheetId="6" r:id="rId6"/>
+    <sheet name="v2 r2 (5)" sheetId="8" r:id="rId5"/>
+    <sheet name="v3" sheetId="9" r:id="rId6"/>
+    <sheet name="Reflexiones" sheetId="4" r:id="rId7"/>
+    <sheet name="decaying eps" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="127">
   <si>
     <t>gen1</t>
   </si>
@@ -179,9 +181,6 @@
     <t>aumentar epsilon</t>
   </si>
   <si>
-    <t>quitar dropout y reducir red</t>
-  </si>
-  <si>
     <t>exploto un gradiente por el generacion 19</t>
   </si>
   <si>
@@ -191,9 +190,6 @@
     <t>capas de 50, sin dropout  20k x 10 x 10, load previous true</t>
   </si>
   <si>
-    <t>capas de 50, sin dropout, con L2  200k x 10 x 10, load previous true</t>
-  </si>
-  <si>
     <t>*(negs)</t>
   </si>
   <si>
@@ -203,14 +199,233 @@
     <t>AGREGUE TODO EL MAZO</t>
   </si>
   <si>
-    <t>hice la red un 20% mas ancha, centro inputs en cero</t>
+    <t>quitar dropout y reducir red, agregar L2</t>
+  </si>
+  <si>
+    <t>400k game per gen</t>
+  </si>
+  <si>
+    <t>hice la red un 100% mas ancha, centro inputs en cero</t>
+  </si>
+  <si>
+    <t>capas de 50, sin dropout, con L2  200k total x 10 x 10, load previous true</t>
+  </si>
+  <si>
+    <t>1,55  1,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,37  1,25 </t>
+  </si>
+  <si>
+    <t>overfit</t>
+  </si>
+  <si>
+    <t>equalfit</t>
+  </si>
+  <si>
+    <t>0,89  0,85</t>
+  </si>
+  <si>
+    <t>1,06   0,996</t>
+  </si>
+  <si>
+    <t>1,06  0,997</t>
+  </si>
+  <si>
+    <t>0,98  0.899</t>
+  </si>
+  <si>
+    <t>1.05  0.916</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>underfit</t>
+  </si>
+  <si>
+    <t>1.05 0.93</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>super bien</t>
+  </si>
+  <si>
+    <t>medio mal</t>
+  </si>
+  <si>
+    <t>8 capas, las grandes de 80, sin dropout  400k total x 10 x 10, load previous true (L2 aumentado a 0,01)</t>
+  </si>
+  <si>
+    <t>1.048  0.98</t>
+  </si>
+  <si>
+    <t>corregi bug de dataleak</t>
+  </si>
+  <si>
+    <t>agrande la red aun mas</t>
+  </si>
+  <si>
+    <t>early stopping n model checkpoint</t>
+  </si>
+  <si>
+    <t>p1 train</t>
+  </si>
+  <si>
+    <t>p1 test</t>
+  </si>
+  <si>
+    <t>p2 train</t>
+  </si>
+  <si>
+    <t>p2 test</t>
+  </si>
+  <si>
+    <t>% versus</t>
+  </si>
+  <si>
+    <t>acidez</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>gen4</t>
+  </si>
+  <si>
+    <t>casi</t>
+  </si>
+  <si>
+    <t>gen5</t>
+  </si>
+  <si>
+    <t>gen6</t>
+  </si>
+  <si>
+    <t>gen7</t>
+  </si>
+  <si>
+    <t>gen8</t>
+  </si>
+  <si>
+    <t>gen9</t>
+  </si>
+  <si>
+    <t>lejos</t>
+  </si>
+  <si>
+    <t>muy lejos</t>
+  </si>
+  <si>
+    <t>sobreajusta, achicar red, bajar patience (que no deje nada facil en el plato pero no busque mas para que generalice)</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>11capas</t>
+  </si>
+  <si>
+    <t>Quizxas general</t>
+  </si>
+  <si>
+    <t>neuronas x capa</t>
+  </si>
+  <si>
+    <t>9capas</t>
+  </si>
+  <si>
+    <t>mejor!</t>
+  </si>
+  <si>
+    <t>gen10</t>
+  </si>
+  <si>
+    <t>5 patience</t>
+  </si>
+  <si>
+    <t>10 patience</t>
+  </si>
+  <si>
+    <t>mal*</t>
+  </si>
+  <si>
+    <t>gen11</t>
+  </si>
+  <si>
+    <t>20k partidas</t>
+  </si>
+  <si>
+    <t>gen12</t>
+  </si>
+  <si>
+    <t>gen13</t>
+  </si>
+  <si>
+    <t>mal!</t>
+  </si>
+  <si>
+    <t>gen14</t>
+  </si>
+  <si>
+    <t>gen15</t>
+  </si>
+  <si>
+    <t>gen16</t>
+  </si>
+  <si>
+    <t>gen17</t>
+  </si>
+  <si>
+    <t>gen18</t>
+  </si>
+  <si>
+    <t>gen19</t>
+  </si>
+  <si>
+    <t>gen20</t>
+  </si>
+  <si>
+    <t>gen21</t>
+  </si>
+  <si>
+    <t>100k partidas</t>
+  </si>
+  <si>
+    <t>70***</t>
+  </si>
+  <si>
+    <t>200k partidas</t>
+  </si>
+  <si>
+    <t>gen22</t>
+  </si>
+  <si>
+    <t>gen23</t>
+  </si>
+  <si>
+    <t>gen24</t>
+  </si>
+  <si>
+    <t>gen25</t>
+  </si>
+  <si>
+    <t>100k partidas, 11 capas de 80Neuronas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +441,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,10 +474,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,18 +1788,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE032D7-EFE0-468E-99A6-C8D4AAFFA42A}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1"/>
     </row>
@@ -1661,7 +1890,7 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -1960,11 +2189,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9FC133-A9EA-4A3D-A100-77CB4E614A83}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D32ED2-D772-4547-B628-453B432D5AC5}">
+  <dimension ref="A4:N63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.38</v>
+      </c>
+      <c r="E8">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.2090000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>1.62</v>
+      </c>
+      <c r="C9">
+        <v>1.647</v>
+      </c>
+      <c r="D9">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.3620000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>1.536</v>
+      </c>
+      <c r="C10">
+        <v>1.577</v>
+      </c>
+      <c r="D10">
+        <v>1.347</v>
+      </c>
+      <c r="E10">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="F10">
+        <v>1.06</v>
+      </c>
+      <c r="G10">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>1.54</v>
+      </c>
+      <c r="C11">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.97</v>
+      </c>
+      <c r="F11">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>1.637</v>
+      </c>
+      <c r="C20">
+        <v>1.583</v>
+      </c>
+      <c r="D20">
+        <v>1.381</v>
+      </c>
+      <c r="E20">
+        <v>1.129</v>
+      </c>
+      <c r="F20">
+        <v>1.042</v>
+      </c>
+      <c r="G20">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="I20">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="J20">
+        <v>1.218</v>
+      </c>
+      <c r="K20">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="L20">
+        <v>1.194</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>1.64</v>
+      </c>
+      <c r="C21">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="D21">
+        <v>1.274</v>
+      </c>
+      <c r="E21">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="I21">
+        <v>1.246</v>
+      </c>
+      <c r="J21">
+        <v>1.234</v>
+      </c>
+      <c r="K21">
+        <v>1.23</v>
+      </c>
+      <c r="L21">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>1.595</v>
+      </c>
+      <c r="C22">
+        <v>1.522</v>
+      </c>
+      <c r="D22">
+        <v>1.375</v>
+      </c>
+      <c r="E22">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.002</v>
+      </c>
+      <c r="G22">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.194</v>
+      </c>
+      <c r="I22">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="J22">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="K22">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="L22">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>1.591</v>
+      </c>
+      <c r="C23">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="D23">
+        <v>1.278</v>
+      </c>
+      <c r="E23">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G23">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.119</v>
+      </c>
+      <c r="I23">
+        <v>1.238</v>
+      </c>
+      <c r="J23">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="K23">
+        <v>1.167</v>
+      </c>
+      <c r="L23">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30">
+        <v>1.222</v>
+      </c>
+      <c r="D30">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="E30">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="F30">
+        <v>1.4630000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31">
+        <v>1.345</v>
+      </c>
+      <c r="D31">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="E31">
+        <v>1.456</v>
+      </c>
+      <c r="F31">
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32">
+        <v>1.216</v>
+      </c>
+      <c r="D32">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="D33">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.4530000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="D41">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="E41">
+        <v>1.129</v>
+      </c>
+      <c r="F41">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42">
+        <v>1.298</v>
+      </c>
+      <c r="D42">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.095</v>
+      </c>
+      <c r="F42">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43">
+        <v>1.202</v>
+      </c>
+      <c r="D43">
+        <v>1.177</v>
+      </c>
+      <c r="E43">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F43">
+        <v>1.153</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44">
+        <v>1.19</v>
+      </c>
+      <c r="D44">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="E44">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F44">
+        <v>1.224</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50">
+        <v>1.22</v>
+      </c>
+      <c r="D50">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="E50">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="F50">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="G50">
+        <v>1.143</v>
+      </c>
+      <c r="H50">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="D51">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="E51">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F51">
+        <v>1.26</v>
+      </c>
+      <c r="G51">
+        <v>1.046</v>
+      </c>
+      <c r="H51">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D52">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E52">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="F52">
+        <v>1.214</v>
+      </c>
+      <c r="G52">
+        <v>1.145</v>
+      </c>
+      <c r="H52">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53">
+        <v>1.143</v>
+      </c>
+      <c r="D53">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="E53">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="F53">
+        <v>1.296</v>
+      </c>
+      <c r="G53">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="H53">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3EAB38-01C7-4A62-82C2-717D49706A89}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +3566,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,22 +3590,52 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2125,12 +3643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79B906F-3545-4580-80BC-9593E0CF2F70}">
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K139"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,21 +3658,21 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>1/(1+A1)</f>
+        <f t="shared" ref="B1:B18" si="0">1/(1+A1)</f>
         <v>0.5</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1">
-        <f>10/(10+E1)</f>
+        <f t="shared" ref="F1:F20" si="1">10/(10+E1)</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1">
-        <f>1/SQRT(1+I1)</f>
+        <f t="shared" ref="J1:J32" si="2">1/SQRT(1+I1)</f>
         <v>0.70710678118654746</v>
       </c>
     </row>
@@ -2163,21 +3681,21 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>1/(1+A2)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <f>10/(10+E2)</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <f>1/SQRT(1+I2)</f>
+        <f t="shared" si="2"/>
         <v>0.57735026918962584</v>
       </c>
     </row>
@@ -2186,21 +3704,21 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>1/(1+A3)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <f>10/(10+E3)</f>
+        <f t="shared" si="1"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <f>1/SQRT(1+I3)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2209,21 +3727,21 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>1/(1+A4)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <f>10/(10+E4)</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <f>1/SQRT(1+I4)</f>
+        <f t="shared" si="2"/>
         <v>0.44721359549995793</v>
       </c>
     </row>
@@ -2232,21 +3750,21 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>1/(1+A5)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <f>10/(10+E5)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5">
-        <f>1/SQRT(1+I5)</f>
+        <f t="shared" si="2"/>
         <v>0.40824829046386307</v>
       </c>
     </row>
@@ -2255,21 +3773,21 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>1/(1+A6)</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <f>10/(10+E6)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="I6">
         <v>6</v>
       </c>
       <c r="J6">
-        <f>1/SQRT(1+I6)</f>
+        <f t="shared" si="2"/>
         <v>0.3779644730092272</v>
       </c>
     </row>
@@ -2278,21 +3796,21 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>1/(1+A7)</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
       <c r="F7">
-        <f>10/(10+E7)</f>
+        <f t="shared" si="1"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7">
-        <f>1/SQRT(1+I7)</f>
+        <f t="shared" si="2"/>
         <v>0.35355339059327373</v>
       </c>
     </row>
@@ -2301,21 +3819,21 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>1/(1+A8)</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
       <c r="F8">
-        <f>10/(10+E8)</f>
+        <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="I8">
         <v>8</v>
       </c>
       <c r="J8">
-        <f>1/SQRT(1+I8)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2324,21 +3842,21 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <f>1/(1+A9)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <f>10/(10+E9)</f>
+        <f t="shared" si="1"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="I9">
         <v>9</v>
       </c>
       <c r="J9">
-        <f>1/SQRT(1+I9)</f>
+        <f t="shared" si="2"/>
         <v>0.31622776601683794</v>
       </c>
     </row>
@@ -2347,21 +3865,21 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <f>1/(1+A10)</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <f>10/(10+E10)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <f>1/SQRT(1+I10)</f>
+        <f t="shared" si="2"/>
         <v>0.30151134457776363</v>
       </c>
     </row>
@@ -2370,21 +3888,21 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <f>1/(1+A11)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11">
-        <f>10/(10+E11)</f>
+        <f t="shared" si="1"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="I11">
         <v>11</v>
       </c>
       <c r="J11">
-        <f>1/SQRT(1+I11)</f>
+        <f t="shared" si="2"/>
         <v>0.28867513459481292</v>
       </c>
     </row>
@@ -2393,21 +3911,21 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <f>1/(1+A12)</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
       <c r="F12">
-        <f>10/(10+E12)</f>
+        <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="I12">
         <v>12</v>
       </c>
       <c r="J12">
-        <f>1/SQRT(1+I12)</f>
+        <f t="shared" si="2"/>
         <v>0.27735009811261457</v>
       </c>
     </row>
@@ -2416,21 +3934,21 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <f>1/(1+A13)</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E13">
         <v>13</v>
       </c>
       <c r="F13">
-        <f>10/(10+E13)</f>
+        <f t="shared" si="1"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="I13">
         <v>13</v>
       </c>
       <c r="J13">
-        <f>1/SQRT(1+I13)</f>
+        <f t="shared" si="2"/>
         <v>0.2672612419124244</v>
       </c>
     </row>
@@ -2439,21 +3957,21 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <f>1/(1+A14)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
       <c r="F14">
-        <f>10/(10+E14)</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I14">
         <v>14</v>
       </c>
       <c r="J14">
-        <f>1/SQRT(1+I14)</f>
+        <f t="shared" si="2"/>
         <v>0.2581988897471611</v>
       </c>
     </row>
@@ -2462,21 +3980,21 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <f>1/(1+A15)</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="E15">
         <v>15</v>
       </c>
       <c r="F15">
-        <f>10/(10+E15)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I15">
         <v>15</v>
       </c>
       <c r="J15">
-        <f>1/SQRT(1+I15)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2485,21 +4003,21 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <f>1/(1+A16)</f>
+        <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="E16">
         <v>16</v>
       </c>
       <c r="F16">
-        <f>10/(10+E16)</f>
+        <f t="shared" si="1"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="I16">
         <v>16</v>
       </c>
       <c r="J16">
-        <f>1/SQRT(1+I16)</f>
+        <f t="shared" si="2"/>
         <v>0.24253562503633297</v>
       </c>
     </row>
@@ -2508,21 +4026,21 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <f>1/(1+A17)</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
       <c r="F17">
-        <f>10/(10+E17)</f>
+        <f t="shared" si="1"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="I17">
         <v>17</v>
       </c>
       <c r="J17">
-        <f>1/SQRT(1+I17)</f>
+        <f t="shared" si="2"/>
         <v>0.23570226039551587</v>
       </c>
     </row>
@@ -2531,21 +4049,21 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <f>1/(1+A18)</f>
+        <f t="shared" si="0"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="E18">
         <v>18</v>
       </c>
       <c r="F18">
-        <f>10/(10+E18)</f>
+        <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="I18">
         <v>18</v>
       </c>
       <c r="J18">
-        <f>1/SQRT(1+I18)</f>
+        <f t="shared" si="2"/>
         <v>0.22941573387056174</v>
       </c>
     </row>
@@ -2557,14 +4075,14 @@
         <v>19</v>
       </c>
       <c r="F19">
-        <f>10/(10+E19)</f>
+        <f t="shared" si="1"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="I19">
         <v>19</v>
       </c>
       <c r="J19">
-        <f>1/SQRT(1+I19)</f>
+        <f t="shared" si="2"/>
         <v>0.22360679774997896</v>
       </c>
     </row>
@@ -2576,14 +4094,14 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <f>10/(10+E20)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I20">
         <v>20</v>
       </c>
       <c r="J20">
-        <f>1/SQRT(1+I20)</f>
+        <f t="shared" si="2"/>
         <v>0.21821789023599239</v>
       </c>
     </row>
@@ -2592,7 +4110,7 @@
         <v>21</v>
       </c>
       <c r="J21">
-        <f>1/SQRT(1+I21)</f>
+        <f t="shared" si="2"/>
         <v>0.21320071635561041</v>
       </c>
     </row>
@@ -2601,7 +4119,7 @@
         <v>22</v>
       </c>
       <c r="J22">
-        <f>1/SQRT(1+I22)</f>
+        <f t="shared" si="2"/>
         <v>0.20851441405707477</v>
       </c>
     </row>
@@ -2610,7 +4128,7 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <f>1/SQRT(1+I23)</f>
+        <f t="shared" si="2"/>
         <v>0.20412414523193154</v>
       </c>
     </row>
@@ -2619,7 +4137,7 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <f>1/SQRT(1+I24)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2628,7 +4146,7 @@
         <v>25</v>
       </c>
       <c r="J25">
-        <f>1/SQRT(1+I25)</f>
+        <f t="shared" si="2"/>
         <v>0.19611613513818404</v>
       </c>
     </row>
@@ -2637,7 +4155,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <f>1/SQRT(1+I26)</f>
+        <f t="shared" si="2"/>
         <v>0.19245008972987526</v>
       </c>
     </row>
@@ -2646,7 +4164,7 @@
         <v>27</v>
       </c>
       <c r="J27">
-        <f>1/SQRT(1+I27)</f>
+        <f t="shared" si="2"/>
         <v>0.1889822365046136</v>
       </c>
     </row>
@@ -2655,7 +4173,7 @@
         <v>28</v>
       </c>
       <c r="J28">
-        <f>1/SQRT(1+I28)</f>
+        <f t="shared" si="2"/>
         <v>0.18569533817705186</v>
       </c>
     </row>
@@ -2664,7 +4182,7 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <f>1/SQRT(1+I29)</f>
+        <f t="shared" si="2"/>
         <v>0.18257418583505536</v>
       </c>
     </row>
@@ -2673,7 +4191,7 @@
         <v>30</v>
       </c>
       <c r="J30">
-        <f>1/SQRT(1+I30)</f>
+        <f t="shared" si="2"/>
         <v>0.17960530202677491</v>
       </c>
     </row>
@@ -2682,7 +4200,7 @@
         <v>31</v>
       </c>
       <c r="J31">
-        <f>1/SQRT(1+I31)</f>
+        <f t="shared" si="2"/>
         <v>0.17677669529663687</v>
       </c>
     </row>
@@ -2691,7 +4209,7 @@
         <v>32</v>
       </c>
       <c r="J32">
-        <f>1/SQRT(1+I32)</f>
+        <f t="shared" si="2"/>
         <v>0.17407765595569785</v>
       </c>
     </row>
@@ -2700,7 +4218,7 @@
         <v>33</v>
       </c>
       <c r="J33">
-        <f>1/SQRT(1+I33)</f>
+        <f t="shared" ref="J33:J64" si="3">1/SQRT(1+I33)</f>
         <v>0.17149858514250882</v>
       </c>
     </row>
@@ -2709,7 +4227,7 @@
         <v>34</v>
       </c>
       <c r="J34">
-        <f>1/SQRT(1+I34)</f>
+        <f t="shared" si="3"/>
         <v>0.1690308509457033</v>
       </c>
     </row>
@@ -2718,7 +4236,7 @@
         <v>35</v>
       </c>
       <c r="J35">
-        <f>1/SQRT(1+I35)</f>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -2727,7 +4245,7 @@
         <v>36</v>
       </c>
       <c r="J36">
-        <f>1/SQRT(1+I36)</f>
+        <f t="shared" si="3"/>
         <v>0.16439898730535729</v>
       </c>
     </row>
@@ -2736,7 +4254,7 @@
         <v>37</v>
       </c>
       <c r="J37">
-        <f>1/SQRT(1+I37)</f>
+        <f t="shared" si="3"/>
         <v>0.16222142113076254</v>
       </c>
     </row>
@@ -2745,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="J38">
-        <f>1/SQRT(1+I38)</f>
+        <f t="shared" si="3"/>
         <v>0.16012815380508713</v>
       </c>
     </row>
@@ -2754,7 +4272,7 @@
         <v>39</v>
       </c>
       <c r="J39">
-        <f>1/SQRT(1+I39)</f>
+        <f t="shared" si="3"/>
         <v>0.15811388300841897</v>
       </c>
     </row>
@@ -2763,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="J40">
-        <f>1/SQRT(1+I40)</f>
+        <f t="shared" si="3"/>
         <v>0.15617376188860607</v>
       </c>
     </row>
@@ -2772,7 +4290,7 @@
         <v>41</v>
       </c>
       <c r="J41">
-        <f>1/SQRT(1+I41)</f>
+        <f t="shared" si="3"/>
         <v>0.15430334996209191</v>
       </c>
     </row>
@@ -2781,7 +4299,7 @@
         <v>42</v>
       </c>
       <c r="J42">
-        <f>1/SQRT(1+I42)</f>
+        <f t="shared" si="3"/>
         <v>0.15249857033260467</v>
       </c>
     </row>
@@ -2790,7 +4308,7 @@
         <v>43</v>
       </c>
       <c r="J43">
-        <f>1/SQRT(1+I43)</f>
+        <f t="shared" si="3"/>
         <v>0.15075567228888181</v>
       </c>
     </row>
@@ -2799,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="J44">
-        <f>1/SQRT(1+I44)</f>
+        <f t="shared" si="3"/>
         <v>0.14907119849998599</v>
       </c>
     </row>
@@ -2808,7 +4326,7 @@
         <v>45</v>
       </c>
       <c r="J45">
-        <f>1/SQRT(1+I45)</f>
+        <f t="shared" si="3"/>
         <v>0.14744195615489714</v>
       </c>
     </row>
@@ -2817,7 +4335,7 @@
         <v>46</v>
       </c>
       <c r="J46">
-        <f>1/SQRT(1+I46)</f>
+        <f t="shared" si="3"/>
         <v>0.14586499149789456</v>
       </c>
     </row>
@@ -2826,7 +4344,7 @@
         <v>47</v>
       </c>
       <c r="J47">
-        <f>1/SQRT(1+I47)</f>
+        <f t="shared" si="3"/>
         <v>0.14433756729740646</v>
       </c>
     </row>
@@ -2835,7 +4353,7 @@
         <v>48</v>
       </c>
       <c r="J48">
-        <f>1/SQRT(1+I48)</f>
+        <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2844,7 +4362,7 @@
         <v>49</v>
       </c>
       <c r="J49">
-        <f>1/SQRT(1+I49)</f>
+        <f t="shared" si="3"/>
         <v>0.1414213562373095</v>
       </c>
     </row>
@@ -2853,7 +4371,7 @@
         <v>50</v>
       </c>
       <c r="J50">
-        <f>1/SQRT(1+I50)</f>
+        <f t="shared" si="3"/>
         <v>0.14002800840280097</v>
       </c>
     </row>
@@ -2862,7 +4380,7 @@
         <v>51</v>
       </c>
       <c r="J51">
-        <f>1/SQRT(1+I51)</f>
+        <f t="shared" si="3"/>
         <v>0.13867504905630729</v>
       </c>
     </row>
@@ -2871,7 +4389,7 @@
         <v>52</v>
       </c>
       <c r="J52">
-        <f>1/SQRT(1+I52)</f>
+        <f t="shared" si="3"/>
         <v>0.13736056394868904</v>
       </c>
     </row>
@@ -2880,7 +4398,7 @@
         <v>53</v>
       </c>
       <c r="J53">
-        <f>1/SQRT(1+I53)</f>
+        <f t="shared" si="3"/>
         <v>0.13608276348795434</v>
       </c>
     </row>
@@ -2889,7 +4407,7 @@
         <v>54</v>
       </c>
       <c r="J54">
-        <f>1/SQRT(1+I54)</f>
+        <f t="shared" si="3"/>
         <v>0.13483997249264842</v>
       </c>
     </row>
@@ -2898,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="J55">
-        <f>1/SQRT(1+I55)</f>
+        <f t="shared" si="3"/>
         <v>0.1336306209562122</v>
       </c>
     </row>
@@ -2907,7 +4425,7 @@
         <v>56</v>
       </c>
       <c r="J56">
-        <f>1/SQRT(1+I56)</f>
+        <f t="shared" si="3"/>
         <v>0.13245323570650439</v>
       </c>
     </row>
@@ -2916,7 +4434,7 @@
         <v>57</v>
       </c>
       <c r="J57">
-        <f>1/SQRT(1+I57)</f>
+        <f t="shared" si="3"/>
         <v>0.13130643285972254</v>
       </c>
     </row>
@@ -2925,7 +4443,7 @@
         <v>58</v>
       </c>
       <c r="J58">
-        <f>1/SQRT(1+I58)</f>
+        <f t="shared" si="3"/>
         <v>0.13018891098082389</v>
       </c>
     </row>
@@ -2934,7 +4452,7 @@
         <v>59</v>
       </c>
       <c r="J59">
-        <f>1/SQRT(1+I59)</f>
+        <f t="shared" si="3"/>
         <v>0.12909944487358055</v>
       </c>
     </row>
@@ -2943,7 +4461,7 @@
         <v>60</v>
       </c>
       <c r="J60">
-        <f>1/SQRT(1+I60)</f>
+        <f t="shared" si="3"/>
         <v>0.12803687993289598</v>
       </c>
     </row>
@@ -2952,7 +4470,7 @@
         <v>61</v>
       </c>
       <c r="J61">
-        <f>1/SQRT(1+I61)</f>
+        <f t="shared" si="3"/>
         <v>0.1270001270001905</v>
       </c>
     </row>
@@ -2961,7 +4479,7 @@
         <v>62</v>
       </c>
       <c r="J62">
-        <f>1/SQRT(1+I62)</f>
+        <f t="shared" si="3"/>
         <v>0.12598815766974239</v>
       </c>
     </row>
@@ -2970,7 +4488,7 @@
         <v>63</v>
       </c>
       <c r="J63">
-        <f>1/SQRT(1+I63)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
@@ -2979,7 +4497,7 @@
         <v>64</v>
       </c>
       <c r="J64">
-        <f>1/SQRT(1+I64)</f>
+        <f t="shared" si="3"/>
         <v>0.12403473458920847</v>
       </c>
     </row>
@@ -2988,7 +4506,7 @@
         <v>65</v>
       </c>
       <c r="J65">
-        <f>1/SQRT(1+I65)</f>
+        <f t="shared" ref="J65:J96" si="4">1/SQRT(1+I65)</f>
         <v>0.12309149097933272</v>
       </c>
     </row>
@@ -2997,7 +4515,7 @@
         <v>66</v>
       </c>
       <c r="J66">
-        <f>1/SQRT(1+I66)</f>
+        <f t="shared" si="4"/>
         <v>0.12216944435630522</v>
       </c>
     </row>
@@ -3006,7 +4524,7 @@
         <v>67</v>
       </c>
       <c r="J67">
-        <f>1/SQRT(1+I67)</f>
+        <f t="shared" si="4"/>
         <v>0.12126781251816648</v>
       </c>
     </row>
@@ -3015,7 +4533,7 @@
         <v>68</v>
       </c>
       <c r="J68">
-        <f>1/SQRT(1+I68)</f>
+        <f t="shared" si="4"/>
         <v>0.1203858530857692</v>
       </c>
     </row>
@@ -3024,7 +4542,7 @@
         <v>69</v>
       </c>
       <c r="J69">
-        <f>1/SQRT(1+I69)</f>
+        <f t="shared" si="4"/>
         <v>0.11952286093343936</v>
       </c>
     </row>
@@ -3033,7 +4551,7 @@
         <v>70</v>
       </c>
       <c r="J70">
-        <f>1/SQRT(1+I70)</f>
+        <f t="shared" si="4"/>
         <v>0.11867816581938533</v>
       </c>
     </row>
@@ -3042,7 +4560,7 @@
         <v>71</v>
       </c>
       <c r="J71">
-        <f>1/SQRT(1+I71)</f>
+        <f t="shared" si="4"/>
         <v>0.11785113019775793</v>
       </c>
     </row>
@@ -3051,7 +4569,7 @@
         <v>72</v>
       </c>
       <c r="J72">
-        <f>1/SQRT(1+I72)</f>
+        <f t="shared" si="4"/>
         <v>0.11704114719613057</v>
       </c>
     </row>
@@ -3060,7 +4578,7 @@
         <v>73</v>
       </c>
       <c r="J73">
-        <f>1/SQRT(1+I73)</f>
+        <f t="shared" si="4"/>
         <v>0.11624763874381928</v>
       </c>
     </row>
@@ -3069,7 +4587,7 @@
         <v>74</v>
       </c>
       <c r="J74">
-        <f>1/SQRT(1+I74)</f>
+        <f t="shared" si="4"/>
         <v>0.11547005383792514</v>
       </c>
     </row>
@@ -3078,7 +4596,7 @@
         <v>75</v>
       </c>
       <c r="J75">
-        <f>1/SQRT(1+I75)</f>
+        <f t="shared" si="4"/>
         <v>0.11470786693528087</v>
       </c>
     </row>
@@ -3087,7 +4605,7 @@
         <v>76</v>
       </c>
       <c r="J76">
-        <f>1/SQRT(1+I76)</f>
+        <f t="shared" si="4"/>
         <v>0.11396057645963795</v>
       </c>
     </row>
@@ -3096,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="J77">
-        <f>1/SQRT(1+I77)</f>
+        <f t="shared" si="4"/>
         <v>0.11322770341445956</v>
       </c>
     </row>
@@ -3105,7 +4623,7 @@
         <v>78</v>
       </c>
       <c r="J78">
-        <f>1/SQRT(1+I78)</f>
+        <f t="shared" si="4"/>
         <v>0.1125087900926024</v>
       </c>
     </row>
@@ -3114,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="J79">
-        <f>1/SQRT(1+I79)</f>
+        <f t="shared" si="4"/>
         <v>0.11180339887498948</v>
       </c>
     </row>
@@ -3123,7 +4641,7 @@
         <v>80</v>
       </c>
       <c r="J80">
-        <f>1/SQRT(1+I80)</f>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -3132,7 +4650,7 @@
         <v>81</v>
       </c>
       <c r="J81">
-        <f>1/SQRT(1+I81)</f>
+        <f t="shared" si="4"/>
         <v>0.11043152607484653</v>
       </c>
     </row>
@@ -3141,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="J82">
-        <f>1/SQRT(1+I82)</f>
+        <f t="shared" si="4"/>
         <v>0.10976425998969035</v>
       </c>
     </row>
@@ -3150,7 +4668,7 @@
         <v>83</v>
       </c>
       <c r="J83">
-        <f>1/SQRT(1+I83)</f>
+        <f t="shared" si="4"/>
         <v>0.10910894511799619</v>
       </c>
     </row>
@@ -3159,7 +4677,7 @@
         <v>84</v>
       </c>
       <c r="J84">
-        <f>1/SQRT(1+I84)</f>
+        <f t="shared" si="4"/>
         <v>0.10846522890932808</v>
       </c>
     </row>
@@ -3168,7 +4686,7 @@
         <v>85</v>
       </c>
       <c r="J85">
-        <f>1/SQRT(1+I85)</f>
+        <f t="shared" si="4"/>
         <v>0.10783277320343841</v>
       </c>
     </row>
@@ -3177,7 +4695,7 @@
         <v>86</v>
       </c>
       <c r="J86">
-        <f>1/SQRT(1+I86)</f>
+        <f t="shared" si="4"/>
         <v>0.10721125348377948</v>
       </c>
     </row>
@@ -3186,7 +4704,7 @@
         <v>87</v>
       </c>
       <c r="J87">
-        <f>1/SQRT(1+I87)</f>
+        <f t="shared" si="4"/>
         <v>0.10660035817780521</v>
       </c>
     </row>
@@ -3195,7 +4713,7 @@
         <v>88</v>
       </c>
       <c r="J88">
-        <f>1/SQRT(1+I88)</f>
+        <f t="shared" si="4"/>
         <v>0.105999788000636</v>
       </c>
     </row>
@@ -3204,7 +4722,7 @@
         <v>89</v>
       </c>
       <c r="J89">
-        <f>1/SQRT(1+I89)</f>
+        <f t="shared" si="4"/>
         <v>0.10540925533894598</v>
       </c>
     </row>
@@ -3213,7 +4731,7 @@
         <v>90</v>
       </c>
       <c r="J90">
-        <f>1/SQRT(1+I90)</f>
+        <f t="shared" si="4"/>
         <v>0.10482848367219183</v>
       </c>
     </row>
@@ -3222,7 +4740,7 @@
         <v>91</v>
       </c>
       <c r="J91">
-        <f>1/SQRT(1+I91)</f>
+        <f t="shared" si="4"/>
         <v>0.10425720702853739</v>
       </c>
     </row>
@@ -3231,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="J92">
-        <f>1/SQRT(1+I92)</f>
+        <f t="shared" si="4"/>
         <v>0.10369516947304253</v>
       </c>
     </row>
@@ -3240,7 +4758,7 @@
         <v>93</v>
       </c>
       <c r="J93">
-        <f>1/SQRT(1+I93)</f>
+        <f t="shared" si="4"/>
         <v>0.10314212462587934</v>
       </c>
     </row>
@@ -3249,7 +4767,7 @@
         <v>94</v>
       </c>
       <c r="J94">
-        <f>1/SQRT(1+I94)</f>
+        <f t="shared" si="4"/>
         <v>0.10259783520851541</v>
       </c>
     </row>
@@ -3258,7 +4776,7 @@
         <v>95</v>
       </c>
       <c r="J95">
-        <f>1/SQRT(1+I95)</f>
+        <f t="shared" si="4"/>
         <v>0.10206207261596577</v>
       </c>
     </row>
@@ -3267,7 +4785,7 @@
         <v>96</v>
       </c>
       <c r="J96">
-        <f>1/SQRT(1+I96)</f>
+        <f t="shared" si="4"/>
         <v>0.10153461651336192</v>
       </c>
     </row>
@@ -3276,7 +4794,7 @@
         <v>97</v>
       </c>
       <c r="J97">
-        <f>1/SQRT(1+I97)</f>
+        <f t="shared" ref="J97:J128" si="5">1/SQRT(1+I97)</f>
         <v>0.10101525445522107</v>
       </c>
     </row>
@@ -3285,7 +4803,7 @@
         <v>98</v>
       </c>
       <c r="J98">
-        <f>1/SQRT(1+I98)</f>
+        <f t="shared" si="5"/>
         <v>0.10050378152592121</v>
       </c>
     </row>
@@ -3294,7 +4812,7 @@
         <v>99</v>
       </c>
       <c r="J99">
-        <f>1/SQRT(1+I99)</f>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
@@ -3303,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="J100">
-        <f>1/SQRT(1+I100)</f>
+        <f t="shared" si="5"/>
         <v>9.9503719020998915E-2</v>
       </c>
     </row>
@@ -3312,7 +4830,7 @@
         <v>101</v>
       </c>
       <c r="J101">
-        <f>1/SQRT(1+I101)</f>
+        <f t="shared" si="5"/>
         <v>9.9014754297667443E-2</v>
       </c>
     </row>
@@ -3321,7 +4839,7 @@
         <v>102</v>
       </c>
       <c r="J102">
-        <f>1/SQRT(1+I102)</f>
+        <f t="shared" si="5"/>
         <v>9.8532927816429319E-2</v>
       </c>
     </row>
@@ -3330,7 +4848,7 @@
         <v>103</v>
       </c>
       <c r="J103">
-        <f>1/SQRT(1+I103)</f>
+        <f t="shared" si="5"/>
         <v>9.8058067569092022E-2</v>
       </c>
     </row>
@@ -3339,7 +4857,7 @@
         <v>104</v>
       </c>
       <c r="J104">
-        <f>1/SQRT(1+I104)</f>
+        <f t="shared" si="5"/>
         <v>9.7590007294853329E-2</v>
       </c>
     </row>
@@ -3348,7 +4866,7 @@
         <v>105</v>
       </c>
       <c r="J105">
-        <f>1/SQRT(1+I105)</f>
+        <f t="shared" si="5"/>
         <v>9.7128586235726413E-2</v>
       </c>
     </row>
@@ -3357,7 +4875,7 @@
         <v>106</v>
       </c>
       <c r="J106">
-        <f>1/SQRT(1+I106)</f>
+        <f t="shared" si="5"/>
         <v>9.6673648904566353E-2</v>
       </c>
     </row>
@@ -3366,7 +4884,7 @@
         <v>107</v>
       </c>
       <c r="J107">
-        <f>1/SQRT(1+I107)</f>
+        <f t="shared" si="5"/>
         <v>9.6225044864937631E-2</v>
       </c>
     </row>
@@ -3375,7 +4893,7 @@
         <v>108</v>
       </c>
       <c r="J108">
-        <f>1/SQRT(1+I108)</f>
+        <f t="shared" si="5"/>
         <v>9.5782628522115137E-2</v>
       </c>
     </row>
@@ -3384,7 +4902,7 @@
         <v>109</v>
       </c>
       <c r="J109">
-        <f>1/SQRT(1+I109)</f>
+        <f t="shared" si="5"/>
         <v>9.5346258924559238E-2</v>
       </c>
     </row>
@@ -3393,7 +4911,7 @@
         <v>110</v>
       </c>
       <c r="J110">
-        <f>1/SQRT(1+I110)</f>
+        <f t="shared" si="5"/>
         <v>9.4915799575249898E-2</v>
       </c>
     </row>
@@ -3402,7 +4920,7 @@
         <v>111</v>
       </c>
       <c r="J111">
-        <f>1/SQRT(1+I111)</f>
+        <f t="shared" si="5"/>
         <v>9.4491118252306799E-2</v>
       </c>
     </row>
@@ -3411,7 +4929,7 @@
         <v>112</v>
       </c>
       <c r="J112">
-        <f>1/SQRT(1+I112)</f>
+        <f t="shared" si="5"/>
         <v>9.4072086838359728E-2</v>
       </c>
     </row>
@@ -3420,7 +4938,7 @@
         <v>113</v>
       </c>
       <c r="J113">
-        <f>1/SQRT(1+I113)</f>
+        <f t="shared" si="5"/>
         <v>9.3658581158169399E-2</v>
       </c>
     </row>
@@ -3429,7 +4947,7 @@
         <v>114</v>
       </c>
       <c r="J114">
-        <f>1/SQRT(1+I114)</f>
+        <f t="shared" si="5"/>
         <v>9.3250480824031381E-2</v>
       </c>
     </row>
@@ -3438,7 +4956,7 @@
         <v>115</v>
       </c>
       <c r="J115">
-        <f>1/SQRT(1+I115)</f>
+        <f t="shared" si="5"/>
         <v>9.284766908852593E-2</v>
       </c>
     </row>
@@ -3447,7 +4965,7 @@
         <v>116</v>
       </c>
       <c r="J116">
-        <f>1/SQRT(1+I116)</f>
+        <f t="shared" si="5"/>
         <v>9.2450032704204849E-2</v>
       </c>
     </row>
@@ -3456,7 +4974,7 @@
         <v>117</v>
       </c>
       <c r="J117">
-        <f>1/SQRT(1+I117)</f>
+        <f t="shared" si="5"/>
         <v>9.2057461789832346E-2</v>
       </c>
     </row>
@@ -3465,7 +4983,7 @@
         <v>118</v>
       </c>
       <c r="J118">
-        <f>1/SQRT(1+I118)</f>
+        <f t="shared" si="5"/>
         <v>9.1669849702821132E-2</v>
       </c>
     </row>
@@ -3474,7 +4992,7 @@
         <v>119</v>
       </c>
       <c r="J119">
-        <f>1/SQRT(1+I119)</f>
+        <f t="shared" si="5"/>
         <v>9.1287092917527679E-2</v>
       </c>
     </row>
@@ -3483,7 +5001,7 @@
         <v>120</v>
       </c>
       <c r="J120">
-        <f>1/SQRT(1+I120)</f>
+        <f t="shared" si="5"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -3492,7 +5010,7 @@
         <v>121</v>
       </c>
       <c r="J121">
-        <f>1/SQRT(1+I121)</f>
+        <f t="shared" si="5"/>
         <v>9.0535746042518531E-2</v>
       </c>
     </row>
@@ -3501,7 +5019,7 @@
         <v>122</v>
       </c>
       <c r="J122">
-        <f>1/SQRT(1+I122)</f>
+        <f t="shared" si="5"/>
         <v>9.016696346674323E-2</v>
       </c>
     </row>
@@ -3510,7 +5028,7 @@
         <v>123</v>
       </c>
       <c r="J123">
-        <f>1/SQRT(1+I123)</f>
+        <f t="shared" si="5"/>
         <v>8.9802651013387455E-2</v>
       </c>
     </row>
@@ -3519,7 +5037,7 @@
         <v>124</v>
       </c>
       <c r="J124">
-        <f>1/SQRT(1+I124)</f>
+        <f t="shared" si="5"/>
         <v>8.9442719099991588E-2</v>
       </c>
     </row>
@@ -3528,7 +5046,7 @@
         <v>125</v>
       </c>
       <c r="J125">
-        <f>1/SQRT(1+I125)</f>
+        <f t="shared" si="5"/>
         <v>8.9087080637474794E-2</v>
       </c>
     </row>
@@ -3537,7 +5055,7 @@
         <v>126</v>
       </c>
       <c r="J126">
-        <f>1/SQRT(1+I126)</f>
+        <f t="shared" si="5"/>
         <v>8.8735650941611385E-2</v>
       </c>
     </row>
@@ -3546,7 +5064,7 @@
         <v>127</v>
       </c>
       <c r="J127">
-        <f>1/SQRT(1+I127)</f>
+        <f t="shared" si="5"/>
         <v>8.8388347648318433E-2</v>
       </c>
     </row>
@@ -3555,7 +5073,7 @@
         <v>128</v>
       </c>
       <c r="J128">
-        <f>1/SQRT(1+I128)</f>
+        <f t="shared" si="5"/>
         <v>8.8045090632562384E-2</v>
       </c>
     </row>
@@ -3564,7 +5082,7 @@
         <v>129</v>
       </c>
       <c r="J129">
-        <f>1/SQRT(1+I129)</f>
+        <f t="shared" ref="J129:J160" si="6">1/SQRT(1+I129)</f>
         <v>8.7705801930702931E-2</v>
       </c>
     </row>
@@ -3573,7 +5091,7 @@
         <v>130</v>
       </c>
       <c r="J130">
-        <f>1/SQRT(1+I130)</f>
+        <f t="shared" si="6"/>
         <v>8.7370405666103795E-2</v>
       </c>
     </row>
@@ -3582,7 +5100,7 @@
         <v>131</v>
       </c>
       <c r="J131">
-        <f>1/SQRT(1+I131)</f>
+        <f t="shared" si="6"/>
         <v>8.7038827977848926E-2</v>
       </c>
     </row>
@@ -3591,7 +5109,7 @@
         <v>132</v>
       </c>
       <c r="J132">
-        <f>1/SQRT(1+I132)</f>
+        <f t="shared" si="6"/>
         <v>8.6710996952411995E-2</v>
       </c>
     </row>
@@ -3600,7 +5118,7 @@
         <v>133</v>
       </c>
       <c r="J133">
-        <f>1/SQRT(1+I133)</f>
+        <f t="shared" si="6"/>
         <v>8.6386842558136015E-2</v>
       </c>
     </row>
@@ -3609,7 +5127,7 @@
         <v>134</v>
       </c>
       <c r="J134">
-        <f>1/SQRT(1+I134)</f>
+        <f t="shared" si="6"/>
         <v>8.6066296582387042E-2</v>
       </c>
     </row>
@@ -3618,7 +5136,7 @@
         <v>135</v>
       </c>
       <c r="J135">
-        <f>1/SQRT(1+I135)</f>
+        <f t="shared" si="6"/>
         <v>8.574929257125441E-2</v>
       </c>
     </row>
@@ -3627,7 +5145,7 @@
         <v>136</v>
       </c>
       <c r="J136">
-        <f>1/SQRT(1+I136)</f>
+        <f t="shared" si="6"/>
         <v>8.5435765771676095E-2</v>
       </c>
     </row>
@@ -3636,7 +5154,7 @@
         <v>137</v>
       </c>
       <c r="J137">
-        <f>1/SQRT(1+I137)</f>
+        <f t="shared" si="6"/>
         <v>8.5125653075874858E-2</v>
       </c>
     </row>
@@ -3645,7 +5163,7 @@
         <v>138</v>
       </c>
       <c r="J138">
-        <f>1/SQRT(1+I138)</f>
+        <f t="shared" si="6"/>
         <v>8.4818892967997092E-2</v>
       </c>
     </row>
@@ -3654,7 +5172,7 @@
         <v>139</v>
       </c>
       <c r="J139">
-        <f>1/SQRT(1+I139)</f>
+        <f t="shared" si="6"/>
         <v>8.4515425472851652E-2</v>
       </c>
     </row>

--- a/log results.xlsx
+++ b/log results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Material\AI\Curso Digital House\XX - Proyecto Truco\pycharm2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Truco\pycharm2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1714416-BF03-4162-904B-D9F8483C6F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F02AC65-13A9-4EA6-B45F-1BF5EF7F2FEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="4785" windowWidth="22110" windowHeight="16455" tabRatio="613" activeTab="5" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
+    <workbookView xWindow="38280" yWindow="2220" windowWidth="29040" windowHeight="15840" tabRatio="613" activeTab="8" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
   </bookViews>
   <sheets>
     <sheet name="v2 r2" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="v3" sheetId="9" r:id="rId6"/>
     <sheet name="Reflexiones" sheetId="4" r:id="rId7"/>
     <sheet name="decaying eps" sheetId="6" r:id="rId8"/>
+    <sheet name="v4(envido)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="166">
   <si>
     <t>gen1</t>
   </si>
@@ -419,13 +420,133 @@
   </si>
   <si>
     <t>100k partidas, 11 capas de 80Neuronas</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>400k</t>
+  </si>
+  <si>
+    <t>11capas + dropout 0.2</t>
+  </si>
+  <si>
+    <t>300k</t>
+  </si>
+  <si>
+    <t>13capas</t>
+  </si>
+  <si>
+    <t>L2 incrementado a  0.1 pero sin dropout</t>
+  </si>
+  <si>
+    <t>guardado como gen70 en value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mal </t>
+  </si>
+  <si>
+    <t>(mas parejo)</t>
+  </si>
+  <si>
+    <t>maso bien</t>
+  </si>
+  <si>
+    <t>partial dropout</t>
+  </si>
+  <si>
+    <t>maso</t>
+  </si>
+  <si>
+    <t>Agrege Envido!</t>
+  </si>
+  <si>
+    <t>no aprende, agregue neuronas y profundidad</t>
+  </si>
+  <si>
+    <t>agregue algo de dropout (porque si pongo todo dropout anda mal)</t>
+  </si>
+  <si>
+    <t>player 2 no aprende bien</t>
+  </si>
+  <si>
+    <t>gen0</t>
+  </si>
+  <si>
+    <t>p1 / p2</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>partial dropout, enlarge/contract</t>
+  </si>
+  <si>
+    <t>pruebo con red enlarge contract, explota gradiente, reviso, bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olvide reajustar la normalizacion de vector de prueba en mi prueba acida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaky relu, achique red </t>
+  </si>
+  <si>
+    <t>en 2 generaciones ya le gana ampliamente a la gen12 anterir</t>
+  </si>
+  <si>
+    <t>old12</t>
+  </si>
+  <si>
+    <t>gen12 old</t>
+  </si>
+  <si>
+    <t>2 patience. 10maxepocj</t>
+  </si>
+  <si>
+    <t>L2   0.01 pero sin dropout</t>
+  </si>
+  <si>
+    <t>leakyrelu</t>
+  </si>
+  <si>
+    <t>masomal</t>
+  </si>
+  <si>
+    <t>no esta tan mal que gen2 juegue mejor vs el random que los otros, mientras optimicen en si mismos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTA = 70 epochs,  6 patience y 2 dropouts intermedios a 0.2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300k + 40% val </t>
+  </si>
+  <si>
+    <t>100 neuronas x capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2   0.01 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +568,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +589,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -470,19 +646,399 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -766,6 +1322,1128 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EB94D5-EB61-4E81-84EE-D4917DA09B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9637059" y="17559618"/>
+          <a:ext cx="1613647" cy="1243852"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>219635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB83F55-AE6A-44DE-968B-1856810CBFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10118912" y="17212235"/>
+          <a:ext cx="1609164" cy="1194547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F76E69-076D-4646-88F7-2F5F1B6381D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125253" y="18955480"/>
+          <a:ext cx="2588070" cy="1601955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>flecha celeste muestra como performan contra su padre, o sea,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> la evolucion de la policy.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>NO ME PUEDO ALEJAR DE LA DIAGONAL EN COMPARACIONES  verticales u horizontales. gen3 es mejor response a 2, pero ya no de 4.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>289891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>70899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flecha: hacia abajo 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5692C7-7587-4065-9CF0-EB0A34AA6092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9740348" y="17484587"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392597</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>122913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74213</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>260073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flecha: hacia abajo 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78DCC88-9A94-4E5E-88D7-C89562AD5FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9992140" y="17317609"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126676</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>210474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259198</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>317662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CuadroTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDFB610-FE0D-4FB8-A3F5-8028D160C4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6984676" y="17355474"/>
+          <a:ext cx="894522" cy="454570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>p1 mejoro,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>debe subir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>117319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203070</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CuadroTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B336727-EAB5-4C44-9DAD-CABEB367CEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10282517" y="15794348"/>
+          <a:ext cx="902318" cy="472109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>p2 mejoro,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>debe bajar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5634</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211352</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>122913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23F9302-1AEF-4AE5-AFAA-0C5CB8480E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10068516" y="16266457"/>
+          <a:ext cx="665160" cy="1001456"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259198</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>6704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>90377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C0277C-E88E-46A4-87D3-AC466B0983C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7879198" y="17499086"/>
+          <a:ext cx="1865048" cy="83673"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>235323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2984E03-5861-4AD8-B0B7-8C2AFE3DA6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9446559" y="23498735"/>
+          <a:ext cx="1322294" cy="1154206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3052591F-4F05-42F9-BC99-AE86AC231723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861176" y="23117735"/>
+          <a:ext cx="1311089" cy="1098177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="41000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>289891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>70899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flecha: hacia abajo 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8665A0E-281E-4169-9C87-0FC678337223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744246" y="17434891"/>
+          <a:ext cx="137160" cy="128390"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392597</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>122913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74213</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>260073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flecha: hacia abajo 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0F85BA-28FC-4299-95AB-29958425AEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9997987" y="17265964"/>
+          <a:ext cx="137160" cy="141057"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200635</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>194785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333157</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>268355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CuadroTexto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DE2D20-3B0D-4CB3-ACA8-D0AD468D21AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058635" y="23469403"/>
+          <a:ext cx="894522" cy="454570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>p1 mejoro,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>debe subir</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333157</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>338397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214764</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>41070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector recto 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7494F-0EA2-4548-B2AC-BC6899FAF4D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7953157" y="23613015"/>
+          <a:ext cx="1865048" cy="83673"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203947</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>34395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>187382</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>125504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CuadroTexto 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948B973B-888A-455F-8ABF-ACF1823185F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10266829" y="21964307"/>
+          <a:ext cx="902318" cy="472109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>p2 mejoro,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>debe bajar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449387</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>125504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195664</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>163254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE71A7DD-5C38-44A7-9A6C-1719E0A4284F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10052828" y="22436416"/>
+          <a:ext cx="665160" cy="1001456"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2509,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D32ED2-D772-4547-B628-453B432D5AC5}">
   <dimension ref="A4:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,21 +5103,39 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
+      <c r="C58" s="2">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
+      <c r="C59">
+        <v>1.103</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
+      <c r="C60">
+        <v>1.085</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
+      <c r="C61">
+        <v>1.0980000000000001</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
+      <c r="C62">
+        <v>1.0509999999999999</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3449,10 +5145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3EAB38-01C7-4A62-82C2-717D49706A89}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A40:A41"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,6 +5332,46 @@
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +6818,7 @@
         <v>129</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J160" si="6">1/SQRT(1+I129)</f>
+        <f t="shared" ref="J129:J139" si="6">1/SQRT(1+I129)</f>
         <v>8.7705801930702931E-2</v>
       </c>
     </row>
@@ -5179,4 +6915,1380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7646CF-F703-4F0A-AD61-3EB0734B0E6E}">
+  <dimension ref="A5:S114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="17" width="6.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="C19">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D19">
+        <v>3.0710000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>11.736000000000001</v>
+      </c>
+      <c r="C20">
+        <v>4.2480000000000002</v>
+      </c>
+      <c r="D20">
+        <v>11.042999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="C21">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="D21">
+        <v>2.7589999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>9.27</v>
+      </c>
+      <c r="C22">
+        <v>10.451000000000001</v>
+      </c>
+      <c r="D22">
+        <v>9.3740000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="E30">
+        <v>3.2</v>
+      </c>
+      <c r="F30">
+        <v>3.3</v>
+      </c>
+      <c r="G30">
+        <v>3.06</v>
+      </c>
+      <c r="H30">
+        <v>2.6</v>
+      </c>
+      <c r="I30">
+        <v>2.6</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31">
+        <v>7.5</v>
+      </c>
+      <c r="E31">
+        <v>5.4</v>
+      </c>
+      <c r="F31">
+        <v>11.07</v>
+      </c>
+      <c r="G31">
+        <v>7.5</v>
+      </c>
+      <c r="H31">
+        <v>5.6</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32">
+        <v>2.8</v>
+      </c>
+      <c r="E32">
+        <v>3.4</v>
+      </c>
+      <c r="F32">
+        <v>3.016</v>
+      </c>
+      <c r="G32">
+        <v>2.8</v>
+      </c>
+      <c r="H32">
+        <v>2.63</v>
+      </c>
+      <c r="I32">
+        <v>2.4</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33">
+        <v>8.4</v>
+      </c>
+      <c r="E33">
+        <v>12.5</v>
+      </c>
+      <c r="F33">
+        <v>15.1</v>
+      </c>
+      <c r="G33">
+        <v>11.5</v>
+      </c>
+      <c r="H33">
+        <v>5.63</v>
+      </c>
+      <c r="I33">
+        <v>6.4</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>3.4</v>
+      </c>
+      <c r="C41">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="D41">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="E41">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>6.6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="D42">
+        <v>2.5</v>
+      </c>
+      <c r="E42">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>3.9</v>
+      </c>
+      <c r="C43">
+        <v>2.8</v>
+      </c>
+      <c r="D43">
+        <v>3.319</v>
+      </c>
+      <c r="E43">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6">
+        <v>24.8</v>
+      </c>
+      <c r="D44">
+        <v>4.22</v>
+      </c>
+      <c r="E44">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q46" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0.495</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="R47" s="24">
+        <v>0.5121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0.5302</v>
+      </c>
+      <c r="N48" s="19">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="R48" s="12">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" s="10">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0.501</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M51" s="22">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.5171</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="R51" s="12">
+        <v>0.5272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0.5454</v>
+      </c>
+      <c r="N52" s="13">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="O52" s="13">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="P52" s="13">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="R52" s="20">
+        <v>0.5343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="L60" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="L61" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M61" s="18">
+        <v>0.49</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="O61" s="25">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="L62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="26">
+        <v>0.6593</v>
+      </c>
+      <c r="N62" s="19"/>
+      <c r="O62" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M63" s="10">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N63" s="27">
+        <v>0.22</v>
+      </c>
+      <c r="O63" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="E75">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="F75">
+        <v>1.655</v>
+      </c>
+      <c r="G75">
+        <v>1.607</v>
+      </c>
+      <c r="H75">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="E76">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="F76">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="G76">
+        <v>1.651</v>
+      </c>
+      <c r="H76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="E77">
+        <v>1.869</v>
+      </c>
+      <c r="F77">
+        <v>1.661</v>
+      </c>
+      <c r="G77">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="H77">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="E78">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="F78">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="G78">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="H78">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>160</v>
+      </c>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M81" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P81" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q81" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R81" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M82" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="N82" s="38">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O82" s="9">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="P82" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="R82" s="24">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M83" s="37">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="N83" s="19">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="O83" s="34">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="R83" s="12">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M84" s="30">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="N84" s="34">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="O84" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="P84" s="34">
+        <v>0.3407</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="R84" s="12">
+        <v>0.37019999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" s="30">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="O85" s="34">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="P85" s="19">
+        <v>0.39</v>
+      </c>
+      <c r="Q85" s="34">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="R85" s="12">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M86" s="31">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N86" s="11">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="O86" s="11">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="P86" s="34">
+        <v>0.4829</v>
+      </c>
+      <c r="Q86" s="19">
+        <v>0.41</v>
+      </c>
+      <c r="R86" s="35">
+        <v>0.37480000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M87" s="32">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="N87" s="13">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="O87" s="13">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="P87" s="13">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="Q87" s="36">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="R87" s="20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="39">
+        <v>0.436</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101">
+        <v>1.84</v>
+      </c>
+      <c r="C101">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102">
+        <v>1.93</v>
+      </c>
+      <c r="C102">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103">
+        <v>1.72</v>
+      </c>
+      <c r="C103">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>1.68</v>
+      </c>
+      <c r="C104">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M107" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O107" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q107" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M108" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="N108" s="42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="40"/>
+    </row>
+    <row r="109" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M109" s="43">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N109" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="O109" s="34"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="12"/>
+    </row>
+    <row r="110" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M110" s="30"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="34"/>
+      <c r="Q110" s="12"/>
+    </row>
+    <row r="111" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M111" s="30"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="34"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="35"/>
+    </row>
+    <row r="112" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L112" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M112" s="41"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="20"/>
+    </row>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>